--- a/TFLEX_TEST_LOG.xlsx
+++ b/TFLEX_TEST_LOG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="12" windowWidth="1896" windowHeight="11016" tabRatio="756" firstSheet="30" activeTab="34"/>
+    <workbookView xWindow="2268" yWindow="12" windowWidth="1896" windowHeight="11016" tabRatio="756" firstSheet="25" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="0000" sheetId="2" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="1045">
   <si>
     <t>SSTC=OK, TESTIND=OK, ATRH=ON, WIND=OK, SWR=OK, RAIN=OK  -jms</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3244,6 +3244,27 @@
   </si>
   <si>
     <t>Successfully tested GPS and Iridium XMIT outside.</t>
+  </si>
+  <si>
+    <t>Back from PI2-18-TH, Rec PT012, 21N-23W (by me on Thalassa repair cruise)</t>
+  </si>
+  <si>
+    <t>Ran Current drain test for  6 days, 13.40 mA Average.  Dumped FLASH RAM data file, which looked okay.</t>
+  </si>
+  <si>
+    <t>Successfully tested the GPS and Iridium XMIT outside.</t>
+  </si>
+  <si>
+    <t>Changed Iridium 1st xmit time to 00:38</t>
+  </si>
+  <si>
+    <t>Rec PT011, 12N-23W, worked okay. Had a lot of resets starting about 4 months into the deployment.  O2 firmware v 1.16.  Had 163 resets.</t>
+  </si>
+  <si>
+    <t>Converted firmware to 2.01, 170530, for bench current drain test.</t>
+  </si>
+  <si>
+    <t>Changed Iridium 1st transmit time to 00:45.</t>
   </si>
 </sst>
 </file>
@@ -3386,7 +3407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3709,6 +3730,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5465,8 +5489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C21"/>
+    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5643,13 +5667,39 @@
         <v>697</v>
       </c>
     </row>
+    <row r="20" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>43182</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>43334</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>1029</v>
+      </c>
+    </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6">
+        <v>43334</v>
+      </c>
       <c r="B22" s="2"/>
+      <c r="C22" s="32" t="s">
+        <v>1043</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="6">
+        <v>43334</v>
+      </c>
       <c r="B23" s="2"/>
+      <c r="C23" s="32" t="s">
+        <v>1044</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -9145,10 +9195,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9208,8 +9258,302 @@
         <v>697</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>43252</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>43327</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>43327</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>43327</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
       <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9413,7 +9757,7 @@
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView topLeftCell="A56" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10518,8 +10862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10607,13 +10951,28 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="6">
+        <v>43332</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="6">
+        <v>43332</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>1034</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="6">
+        <v>43332</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>1040</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -10649,8 +11008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16849,8 +17208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="H29" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView topLeftCell="A3" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17039,52 +17398,52 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="101">
         <v>1002</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="101">
         <v>2</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="102"/>
+      <c r="E6" s="102" t="s">
         <v>462</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="103" t="s">
         <v>442</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="104" t="s">
         <v>567</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="104" t="s">
         <v>714</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="105" t="s">
         <v>506</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="102" t="s">
         <v>297</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="107" t="s">
         <v>405</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="102" t="s">
         <v>400</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="102" t="s">
         <v>400</v>
       </c>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="14" t="s">
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="111" t="s">
         <v>5</v>
       </c>
     </row>
@@ -17491,8 +17850,8 @@
         <v>11</v>
       </c>
       <c r="D15" s="30"/>
-      <c r="E15" s="30" t="s">
-        <v>696</v>
+      <c r="E15" s="86" t="s">
+        <v>753</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>329</v>
@@ -17525,7 +17884,9 @@
       <c r="P15" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="Q15" s="30"/>
+      <c r="Q15" s="3" t="s">
+        <v>400</v>
+      </c>
       <c r="R15" s="14" t="s">
         <v>276</v>
       </c>
@@ -18233,15 +18594,15 @@
         <v>26</v>
       </c>
       <c r="D30" s="30"/>
-      <c r="E30" s="30" t="s">
-        <v>696</v>
+      <c r="E30" s="86" t="s">
+        <v>753</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="59"/>
       <c r="H30" s="58" t="s">
         <v>442</v>
       </c>
-      <c r="I30" s="67" t="s">
+      <c r="I30" s="80" t="s">
         <v>454</v>
       </c>
       <c r="J30" s="28"/>
@@ -18263,7 +18624,9 @@
       <c r="P30" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="Q30" s="3"/>
+      <c r="Q30" s="30" t="s">
+        <v>400</v>
+      </c>
       <c r="R30" s="52" t="s">
         <v>575</v>
       </c>
@@ -19817,8 +20180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -20551,6 +20914,12 @@
       </c>
       <c r="C41" s="38">
         <v>15.2</v>
+      </c>
+      <c r="D41" s="37">
+        <v>43332</v>
+      </c>
+      <c r="E41" s="109">
+        <v>13.4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">

--- a/TFLEX_TEST_LOG.xlsx
+++ b/TFLEX_TEST_LOG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="12" windowWidth="1896" windowHeight="11016" tabRatio="756" firstSheet="25" activeTab="33"/>
+    <workbookView xWindow="2268" yWindow="12" windowWidth="1896" windowHeight="11016" tabRatio="756" firstSheet="49" activeTab="63"/>
   </bookViews>
   <sheets>
     <sheet name="0000" sheetId="2" r:id="rId1"/>
@@ -72,16 +72,19 @@
     <sheet name="0058" sheetId="63" r:id="rId58"/>
     <sheet name="0059" sheetId="64" r:id="rId59"/>
     <sheet name="0060" sheetId="65" r:id="rId60"/>
-    <sheet name="IridiumInfo" sheetId="6" r:id="rId61"/>
-    <sheet name="STATUS" sheetId="1" r:id="rId62"/>
-    <sheet name="CurrentDrainTests" sheetId="15" r:id="rId63"/>
+    <sheet name="0061" sheetId="66" r:id="rId61"/>
+    <sheet name="0062" sheetId="67" r:id="rId62"/>
+    <sheet name="0063" sheetId="68" r:id="rId63"/>
+    <sheet name="IridiumInfo" sheetId="6" r:id="rId64"/>
+    <sheet name="STATUS" sheetId="1" r:id="rId65"/>
+    <sheet name="CurrentDrainTests" sheetId="15" r:id="rId66"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="1076">
   <si>
     <t>SSTC=OK, TESTIND=OK, ATRH=ON, WIND=OK, SWR=OK, RAIN=OK  -jms</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3265,6 +3268,99 @@
   </si>
   <si>
     <t>Changed Iridium 1st transmit time to 00:45.</t>
+  </si>
+  <si>
+    <t>Ran Current drain test for 7 days, 12.8 mA Average.  Dumped FLASH RAM data file, which looked okay.</t>
+  </si>
+  <si>
+    <t>Sucessfully tested GPS and XMIT iridium commands outside (with internal antennas).</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>TFLEX0061 TEST LOG</t>
+  </si>
+  <si>
+    <t>TFLEX0062 TEST LOG</t>
+  </si>
+  <si>
+    <t>TFLEX0063 TEST LOG</t>
+  </si>
+  <si>
+    <t>This system had 163 resets running the O2 firmware v 1.16.  On day 7 of a bench test, this system had ONE RESET, and 6 hours of all Iridium data was lost, not transmittted.  The GPS position also was missing.  Need to let it run a little longer to make sure that this is NOT a chronic problem.</t>
+  </si>
+  <si>
+    <t>Ryan says Iridium now not working??? Needs testing???</t>
+  </si>
+  <si>
+    <t>Iridium needs to be checked out, Ryan says bad.</t>
+  </si>
+  <si>
+    <t>Ran this system an additional 6 days, and it did NOT have any additonal resets, so I think its okay, and may have been an issue with just one of the Iridium 6 hour buffer transmits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ran for a total of 14 days, current drain test, current drain average 14.76mA.  </t>
+  </si>
+  <si>
+    <t>THIS SYSTEM TFLEX0011 should NOT be used, since it has intermittent Iridium problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested GPS outside okay, but XMIT did not work well.  Did XMIT 5 times outside, and it worked okay only one time.  Saw computer to modem coms BAD error once.  Then other XMITs took a long time, and they would send all 6 of the dummy files, but then hanged and timed out, and repeated the XMIT.  </t>
+  </si>
+  <si>
+    <t>Sept 2018, DaveZ</t>
+  </si>
+  <si>
+    <t>Built NEW. *USED RECYCLED SEABIRD IMM.</t>
+  </si>
+  <si>
+    <t>Replaced Iridium modem (recycled from TFLEX0002). Replaced Serial board with new board.  Replaced GPS &amp; Iridium antennas and antenna cables.  Tested XMIT multiple times inside on rooftop antenna and outside with its internal antennas. XMIT worked great!  Registering and successfully transmitting dummy files quickly.  It did this multiple times, so I think this system is fixed and ready to go. It will run on the bench again for a couple of days for a current drain check again just to be sure.</t>
+  </si>
+  <si>
+    <t>8988169234001233980</t>
+  </si>
+  <si>
+    <t>881621467360</t>
+  </si>
+  <si>
+    <t>881692430844</t>
+  </si>
+  <si>
+    <t>8988169234001233972</t>
+  </si>
+  <si>
+    <t>881692430847</t>
+  </si>
+  <si>
+    <t>8988169234001233824</t>
+  </si>
+  <si>
+    <t>881621467362</t>
+  </si>
+  <si>
+    <t>881692430848</t>
+  </si>
+  <si>
+    <t>881621467361</t>
+  </si>
+  <si>
+    <t>Installed new Iridium SIM card.</t>
+  </si>
+  <si>
+    <t>Installed Iridium SIM card.</t>
+  </si>
+  <si>
+    <t>Ran Bench current drain test for  7 days with version 2.01, 170530 firmware, RF modem turned off, 14.25mA Average. Downloaded and checked Flash RAM data, which looked good.</t>
+  </si>
+  <si>
+    <t>9/11/20108</t>
   </si>
 </sst>
 </file>
@@ -3407,7 +3503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3733,6 +3829,18 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4108,8 +4216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView topLeftCell="C63" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView topLeftCell="A63" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5487,10 +5595,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A25" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5701,29 +5809,57 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+    <row r="24" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="112">
+        <v>43335</v>
+      </c>
+      <c r="B24" s="113"/>
+      <c r="C24" s="114" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>43353</v>
+      </c>
       <c r="B25" s="2"/>
+      <c r="C25" s="32" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="6">
+        <v>43353</v>
+      </c>
       <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="C26" s="11" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>43353</v>
+      </c>
       <c r="B27" s="2"/>
+      <c r="C27" s="11" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="C28" s="11" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>43354</v>
+      </c>
       <c r="B29" s="2"/>
+      <c r="C29" s="32" t="s">
+        <v>1062</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
@@ -5752,6 +5888,14 @@
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7194,8 +7338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7362,8 +7506,13 @@
       </c>
     </row>
     <row r="19" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="6">
+        <v>43347</v>
+      </c>
       <c r="B19" s="7"/>
+      <c r="C19" s="11" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="20" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -9198,7 +9347,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9291,13 +9440,28 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="6">
+        <v>43339</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="6">
+        <v>43339</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>1034</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="6">
+        <v>43339</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>1046</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -10862,7 +11026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -15741,7 +15905,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15815,7 +15979,9 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6">
+        <v>43319</v>
+      </c>
       <c r="C9" s="32" t="s">
         <v>1011</v>
       </c>
@@ -15901,10 +16067,469 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>43353</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="32" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>43354</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="32" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>43355</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="32" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="C7" s="32" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="C8" s="32" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="C11" s="60"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>43353</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="32" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>43354</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="32" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>43355</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="32" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="C7" s="32" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="C8" s="32" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="C11" s="60"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>43353</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="32" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="32" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>43355</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="32" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="C7" s="32" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="C8" s="32" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="C11" s="60"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17194,22 +17819,82 @@
         <v>43258</v>
       </c>
     </row>
+    <row r="66" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="61" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B66" s="74">
+        <v>1061</v>
+      </c>
+      <c r="C66" s="76" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D66" s="61" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E66" s="77" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F66" s="75">
+        <v>43355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="61" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B67" s="74">
+        <v>1062</v>
+      </c>
+      <c r="C67" s="76" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D67" s="61" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E67" s="77" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F67" s="75">
+        <v>43355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="61" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B68" s="74">
+        <v>1063</v>
+      </c>
+      <c r="C68" s="76" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D68" s="61" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E68" s="77" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F68" s="75">
+        <v>43355</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.5" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A12:F13 C14:E19 C4:E11 A4:A11 C20:F21 A14:A21 A22:F25 A26:D36 E26:E27 D37:D39 A37:B39 A40:E42 A43:A45 D47 A47:A49 C43:E45 C48:E49 A50:B52 C50:E52 A53:F55 A56:E58 A60:A61 D60:D61 C60:C61 E60:E61 E59 C59 D59 A59 A63:F65" numberStoredAsText="1"/>
+    <ignoredError sqref="A12:F13 C14:E19 C4:E11 A4:A11 C20:F21 A14:A21 A22:F25 A26:D36 E26:E27 D37:D39 A37:B39 A40:E42 A43:A45 D47 A47:A49 C43:E45 C48:E49 A50:B52 C50:E52 A53:F55 A56:E58 A60:A61 D60:D61 C60:C61 E60:E61 E59 C59 D59 A59 A63:F65 C66:E68 A66:A68" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A9" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17219,7 +17904,7 @@
     <col min="3" max="3" width="6.5546875" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
     <col min="5" max="9" width="14.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="40.5546875" customWidth="1"/>
+    <col min="10" max="10" width="41.21875" customWidth="1"/>
     <col min="11" max="11" width="22.5546875" customWidth="1"/>
     <col min="12" max="12" width="9" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.88671875" style="34" customWidth="1"/>
@@ -17840,7 +18525,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="87" t="s">
         <v>276</v>
       </c>
       <c r="B15" s="3">
@@ -17865,7 +18550,7 @@
       <c r="I15" s="80" t="s">
         <v>718</v>
       </c>
-      <c r="J15" s="28"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="48" t="s">
         <v>295</v>
       </c>
@@ -18143,7 +18828,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>397</v>
       </c>
@@ -18169,7 +18854,9 @@
       <c r="I21" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="J21" s="28"/>
+      <c r="J21" s="28" t="s">
+        <v>1055</v>
+      </c>
       <c r="K21" s="48" t="s">
         <v>417</v>
       </c>
@@ -18337,7 +19024,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="100" t="s">
         <v>515</v>
       </c>
@@ -20165,23 +20852,161 @@
         <v>972</v>
       </c>
     </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="52" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1061</v>
+      </c>
+      <c r="C65" s="3">
+        <v>61</v>
+      </c>
+      <c r="D65" s="30"/>
+      <c r="E65" s="94" t="s">
+        <v>753</v>
+      </c>
+      <c r="F65" s="27"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="80" t="s">
+        <v>716</v>
+      </c>
+      <c r="J65" s="28"/>
+      <c r="K65" s="48" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L65" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="M65" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q65" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="R65" s="52" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="52" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1062</v>
+      </c>
+      <c r="C66" s="3">
+        <v>62</v>
+      </c>
+      <c r="D66" s="30"/>
+      <c r="E66" s="94" t="s">
+        <v>753</v>
+      </c>
+      <c r="F66" s="27"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="J66" s="28"/>
+      <c r="K66" s="48" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L66" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="M66" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="R66" s="52" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="52" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1063</v>
+      </c>
+      <c r="C67" s="3">
+        <v>63</v>
+      </c>
+      <c r="D67" s="30"/>
+      <c r="E67" s="94" t="s">
+        <v>753</v>
+      </c>
+      <c r="F67" s="27"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="80" t="s">
+        <v>717</v>
+      </c>
+      <c r="J67" s="28"/>
+      <c r="K67" s="48" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L67" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="M67" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="R67" s="52" t="s">
+        <v>1049</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.25" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A4:A21 R4:R5 R15 R6:R14 R16:R21 B29:D29 B28:D28 F29:H29 G30:H30 B30:D30 A30 A28 A29 A22:A27 A31:A48 R37 R22:R32 R38:R48 A49:A51 R49:R51 G28:H28 A52:A55 R52:R56 A56:A58 R57:R58 R59:R61 A59:A61 R33:R36 A62:A64" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:A21 R4:R5 R15 R6:R14 R16:R21 B29:D29 B28:D28 F29:H29 G30:H30 B30:D30 A30 A28 A29 A22:A27 A31:A48 R37 R22:R32 R38:R48 A49:A51 R49:R51 G28:H28 A52:A55 R52:R56 A56:A58 R57:R58 R59:R61 A59:A61 R33:R36 A62:A64 R62:R67 A65:A67" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -20287,10 +21112,10 @@
       <c r="A8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="108">
         <v>43320</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="109">
         <v>14.25</v>
       </c>
       <c r="D8" s="34"/>
@@ -20529,8 +21354,12 @@
       <c r="E19" s="38">
         <v>15.05</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
+      <c r="F19" s="108">
+        <v>43353</v>
+      </c>
+      <c r="G19" s="115">
+        <v>14.76</v>
+      </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
@@ -20820,6 +21649,12 @@
       <c r="C34" s="38">
         <v>14.22</v>
       </c>
+      <c r="D34" s="108">
+        <v>43339</v>
+      </c>
+      <c r="E34" s="109">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="78" t="s">
@@ -20915,7 +21750,7 @@
       <c r="C41" s="38">
         <v>15.2</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="108">
         <v>43332</v>
       </c>
       <c r="E41" s="109">
@@ -20932,7 +21767,7 @@
       <c r="C42" s="38">
         <v>14.4</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="108">
         <v>43326</v>
       </c>
       <c r="E42" s="109">
@@ -21243,12 +22078,33 @@
       <c r="E67" s="109">
         <v>12.94</v>
       </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B68" s="115"/>
+      <c r="C68" s="115"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="36" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B69" s="115"/>
+      <c r="C69" s="115"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="36" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B70" s="115"/>
+      <c r="C70" s="115"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A8:A23 A24:A34 A38 A35 A36 A37 A43 A40 A39 A41 A44:A46 A42 A47:A49 A50:A52 A53:A55 A56:A58 A59:A61 A62:A64 A65:A67" numberStoredAsText="1"/>
+    <ignoredError sqref="A8:A23 A24:A34 A38 A35 A36 A37 A43 A40 A39 A41 A44:A46 A42 A47:A49 A50:A52 A53:A55 A56:A58 A59:A61 A62:A64 A65:A66 A67:A70" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -21257,7 +22113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/TFLEX_TEST_LOG.xlsx
+++ b/TFLEX_TEST_LOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/white/Repos/Dev/dbFlexControllers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7319F8-2CA8-CE46-B9EF-8427F85ABCBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDEBE5B-5CA4-2F4A-955B-1D057B20C45D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34140" windowHeight="28240" tabRatio="756" firstSheet="60" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17060" yWindow="460" windowWidth="34140" windowHeight="28240" tabRatio="756" firstSheet="60" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0000" sheetId="2" r:id="rId1"/>
@@ -16560,7 +16560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>

--- a/TFLEX_TEST_LOG.xlsx
+++ b/TFLEX_TEST_LOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/white/Repos/Dev/dbFlexControllers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDEBE5B-5CA4-2F4A-955B-1D057B20C45D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55210814-714E-4C4F-B70A-B9CB9C74453E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17060" yWindow="460" windowWidth="34140" windowHeight="28240" tabRatio="756" firstSheet="60" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34140" windowHeight="28240" tabRatio="756" firstSheet="58" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0000" sheetId="2" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1080">
   <si>
     <t>SSTC=OK, TESTIND=OK, ATRH=ON, WIND=OK, SWR=OK, RAIN=OK  -jms</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3211,9 +3211,6 @@
     <t>Installed new Orings, face and jam seal.</t>
   </si>
   <si>
-    <t xml:space="preserve"> indicates current drain test run with Gill Wind sensor with NEW Ocean Server 4000T compass</t>
-  </si>
-  <si>
     <t>Rain Bench current drain test again for 1 day with Gill wind sensor with NEW Ocean Server 4000T compass, had lower average, 12.94mA.</t>
   </si>
   <si>
@@ -3359,6 +3356,24 @@
   </si>
   <si>
     <t>Ran Bench current drain test for  7 days with version 2.01, 170530 firmware, RF modem turned off, 14.25mA Average. Downloaded and checked Flash RAM data, which looked good.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> indicates current drain test run with Gill Wind sensor with NEW Ocean Server 4000T compass, starting 8/7/2018.</t>
+  </si>
+  <si>
+    <t>Ran another current drain test on the bench for 6 days, after Iridium repairs above, current drain 16.66mA average, NO RESETS.</t>
+  </si>
+  <si>
+    <t>Ran Bench current drain test for  7 days with version 2.01, 170530 firmware, but Patrick stopped my running average when he used my multimeter, but average was around 14mA.</t>
+  </si>
+  <si>
+    <t>Ran Bench current drain test AGAIN for 3 days with average current drain of 13.33mA.  Flash RAM data dump looked good.</t>
+  </si>
+  <si>
+    <t>Successfully tested internal GPS &amp; Iridium antenna by doing an GPS &amp; XMIT outside.</t>
+  </si>
+  <si>
+    <t>Ran Bench current drain test for  3.5 days with version 2.01, 170530 firmware, RF modem turned off, 13.84mA Average. Downloaded and checked Flash RAM data, which looked good.</t>
   </si>
 </sst>
 </file>
@@ -4921,7 +4936,7 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -5056,7 +5071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -5377,7 +5392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
@@ -5629,8 +5644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="C25" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5812,7 +5827,7 @@
         <v>43182</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5820,7 +5835,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5829,7 +5844,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="32" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5838,7 +5853,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="32" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42" x14ac:dyDescent="0.15">
@@ -5847,7 +5862,7 @@
       </c>
       <c r="B24" s="113"/>
       <c r="C24" s="114" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -5856,7 +5871,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="32" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5865,7 +5880,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="11" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42" x14ac:dyDescent="0.15">
@@ -5874,14 +5889,14 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="11" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="56" x14ac:dyDescent="0.15">
@@ -5890,12 +5905,17 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="32" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
+        <v>43360</v>
+      </c>
       <c r="B30" s="2"/>
+      <c r="C30" s="32" t="s">
+        <v>1075</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
@@ -7370,8 +7390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7543,7 +7563,7 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="11" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -9444,7 +9464,7 @@
         <v>43252</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -9452,7 +9472,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -9460,7 +9480,7 @@
         <v>43327</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -9468,7 +9488,7 @@
         <v>43327</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -9476,7 +9496,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -9484,7 +9504,7 @@
         <v>43339</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -9492,7 +9512,7 @@
         <v>43339</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -11119,7 +11139,7 @@
         <v>43252</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11127,7 +11147,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11135,7 +11155,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11143,7 +11163,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11151,7 +11171,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11159,7 +11179,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11167,7 +11187,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -11265,7 +11285,7 @@
         <v>43252</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11273,7 +11293,7 @@
         <v>43319</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11281,7 +11301,7 @@
         <v>43319</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11289,7 +11309,7 @@
         <v>43319</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11297,7 +11317,7 @@
         <v>43326</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11305,7 +11325,7 @@
         <v>43326</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11313,7 +11333,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -15000,7 +15020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -16007,7 +16027,7 @@
         <v>43319</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -16099,10 +16119,175 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>43353</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="32" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>43354</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="32" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>43355</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="32" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>43363</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>43398</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>43398</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="C10" s="32"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="C12" s="60"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16138,7 +16323,7 @@
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="32" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16160,166 +16345,17 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6">
+        <v>43402</v>
+      </c>
       <c r="C7" s="32" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="C8" s="32" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="C9" s="32"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="C11" s="60"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="142.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
-        <v>43353</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="32" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
-        <v>43354</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="32" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
-        <v>43355</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="32" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="C7" s="32" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>43402</v>
+      </c>
       <c r="C8" s="32" t="s">
         <v>1011</v>
       </c>
@@ -16420,7 +16456,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C1" s="11"/>
     </row>
@@ -16444,7 +16480,7 @@
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="32" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16462,13 +16498,13 @@
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="32" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="C7" s="32" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -16560,7 +16596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
@@ -17853,19 +17889,19 @@
     </row>
     <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="61" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B66" s="74">
         <v>1061</v>
       </c>
       <c r="C66" s="76" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D66" s="61" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E66" s="77" t="s">
         <v>1064</v>
-      </c>
-      <c r="D66" s="61" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E66" s="77" t="s">
-        <v>1065</v>
       </c>
       <c r="F66" s="75">
         <v>43355</v>
@@ -17873,19 +17909,19 @@
     </row>
     <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="61" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B67" s="74">
         <v>1062</v>
       </c>
       <c r="C67" s="76" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D67" s="61" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E67" s="77" t="s">
         <v>1066</v>
-      </c>
-      <c r="E67" s="77" t="s">
-        <v>1067</v>
       </c>
       <c r="F67" s="75">
         <v>43355</v>
@@ -17893,19 +17929,19 @@
     </row>
     <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="61" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B68" s="74">
         <v>1063</v>
       </c>
       <c r="C68" s="76" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D68" s="61" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E68" s="77" t="s">
         <v>1069</v>
-      </c>
-      <c r="D68" s="61" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E68" s="77" t="s">
-        <v>1070</v>
       </c>
       <c r="F68" s="75">
         <v>43355</v>
@@ -17925,8 +17961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A11" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18887,7 +18923,7 @@
         <v>159</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K21" s="48" t="s">
         <v>417</v>
@@ -20271,7 +20307,7 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="100" t="s">
         <v>736</v>
       </c>
       <c r="B51" s="3">
@@ -20290,7 +20326,7 @@
       <c r="I51" s="80" t="s">
         <v>714</v>
       </c>
-      <c r="J51" s="28" t="s">
+      <c r="J51" s="105" t="s">
         <v>1000</v>
       </c>
       <c r="K51" s="48" t="s">
@@ -20886,7 +20922,7 @@
     </row>
     <row r="65" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="52" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B65" s="3">
         <v>1061</v>
@@ -20906,7 +20942,7 @@
       </c>
       <c r="J65" s="28"/>
       <c r="K65" s="48" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="L65" s="30" t="s">
         <v>298</v>
@@ -20927,12 +20963,12 @@
         <v>400</v>
       </c>
       <c r="R65" s="52" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="52" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B66" s="3">
         <v>1062</v>
@@ -20952,7 +20988,7 @@
       </c>
       <c r="J66" s="28"/>
       <c r="K66" s="48" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="L66" s="30" t="s">
         <v>298</v>
@@ -20973,12 +21009,12 @@
         <v>400</v>
       </c>
       <c r="R66" s="52" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="52" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B67" s="3">
         <v>1063</v>
@@ -20998,7 +21034,7 @@
       </c>
       <c r="J67" s="28"/>
       <c r="K67" s="48" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="L67" s="30" t="s">
         <v>298</v>
@@ -21019,7 +21055,7 @@
         <v>400</v>
       </c>
       <c r="R67" s="52" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
   </sheetData>
@@ -21037,8 +21073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21074,7 +21110,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="35" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -21089,7 +21125,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="110"/>
       <c r="B5" s="35" t="s">
-        <v>1025</v>
+        <v>1074</v>
       </c>
       <c r="C5" s="35"/>
     </row>
@@ -21392,6 +21428,12 @@
       <c r="G19" s="115">
         <v>14.76</v>
       </c>
+      <c r="H19" s="83">
+        <v>43360</v>
+      </c>
+      <c r="I19" s="85">
+        <v>16.66</v>
+      </c>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
@@ -22113,21 +22155,29 @@
     </row>
     <row r="68" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="36" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B68" s="115"/>
-      <c r="C68" s="115"/>
+        <v>1046</v>
+      </c>
+      <c r="B68" s="108">
+        <v>43398</v>
+      </c>
+      <c r="C68" s="115">
+        <v>13.33</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="36" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B69" s="115"/>
-      <c r="C69" s="115"/>
+        <v>1047</v>
+      </c>
+      <c r="B69" s="108">
+        <v>43402</v>
+      </c>
+      <c r="C69" s="115">
+        <v>13.84</v>
+      </c>
     </row>
     <row r="70" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="36" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B70" s="115"/>
       <c r="C70" s="115"/>

--- a/TFLEX_TEST_LOG.xlsx
+++ b/TFLEX_TEST_LOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/white/Repos/Dev/dbFlexControllers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55210814-714E-4C4F-B70A-B9CB9C74453E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14960A2-5E58-6546-859D-EE37A4D084CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34140" windowHeight="28240" tabRatio="756" firstSheet="58" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34140" windowHeight="28240" tabRatio="756" firstSheet="44" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0000" sheetId="2" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="1092">
   <si>
     <t>SSTC=OK, TESTIND=OK, ATRH=ON, WIND=OK, SWR=OK, RAIN=OK  -jms</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3202,9 +3202,6 @@
     <t>Updated firmware to version 2.01, 170530.</t>
   </si>
   <si>
-    <t>Used for Grassy Knoll testing</t>
-  </si>
-  <si>
     <t>Updated Iridium 1st Xmit time to 00:40.</t>
   </si>
   <si>
@@ -3298,9 +3295,6 @@
     <t>Ryan says Iridium now not working??? Needs testing???</t>
   </si>
   <si>
-    <t>Iridium needs to be checked out, Ryan says bad.</t>
-  </si>
-  <si>
     <t>Ran this system an additional 6 days, and it did NOT have any additonal resets, so I think its okay, and may have been an issue with just one of the Iridium 6 hour buffer transmits.</t>
   </si>
   <si>
@@ -3355,9 +3349,6 @@
     <t>Installed Iridium SIM card.</t>
   </si>
   <si>
-    <t>Ran Bench current drain test for  7 days with version 2.01, 170530 firmware, RF modem turned off, 14.25mA Average. Downloaded and checked Flash RAM data, which looked good.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> indicates current drain test run with Gill Wind sensor with NEW Ocean Server 4000T compass, starting 8/7/2018.</t>
   </si>
   <si>
@@ -3374,6 +3365,51 @@
   </si>
   <si>
     <t>Ran Bench current drain test for  3.5 days with version 2.01, 170530 firmware, RF modem turned off, 13.84mA Average. Downloaded and checked Flash RAM data, which looked good.</t>
+  </si>
+  <si>
+    <t>Gave to Patrick for TELOS testing</t>
+  </si>
+  <si>
+    <t>Back from Indonesia, IO1-18, not deployed.</t>
+  </si>
+  <si>
+    <t>Back from Indonesia, IO1-18.  NEEDS TESTING, REPAIR for GPS, GPS module on RIG board? Or NEW GPS antenna???</t>
+  </si>
+  <si>
+    <t>Back from Indonesia, IO1-18, NOT deployed, needs checkout/upgrades.</t>
+  </si>
+  <si>
+    <t>Ran Bench current drain test for 3 days with version 2.01, 170530 firmware, RF modem turned off, 13.23mA Average. Downloaded and checked Flash RAM data, which looked good.</t>
+  </si>
+  <si>
+    <t>Installed metal SS standoffs on bottom of circuit board stack.</t>
+  </si>
+  <si>
+    <t>Back from IO2-18-RB, NOT USED, not deployed at 12S-67E due to bad weather on site.</t>
+  </si>
+  <si>
+    <t>Ran Bench current drain test for 4 days with version 2.01, 170530 firmware, RF modem turned off, 12.99mA Average.</t>
+  </si>
+  <si>
+    <t>Successfully tested GPS and XMIT commands outside on the internal antennas.</t>
+  </si>
+  <si>
+    <t>Installed metal SS standoffs on the bottom of the circuit board stack.</t>
+  </si>
+  <si>
+    <t>Back from IO2-18-RB, not deployed at 8S-81E due to bad weather.</t>
+  </si>
+  <si>
+    <t>Back from IO2-18-RB, not deployed due to rough weather</t>
+  </si>
+  <si>
+    <t>Ran 3 day current drain test, everything worked okay, 12.63mA average.</t>
+  </si>
+  <si>
+    <t>Ran Current drain test for 4 days, 12.88 mA Average.  Dumped FLASH RAM data file, which looked okay.</t>
+  </si>
+  <si>
+    <t>Successfully tested GPS and Iridium XMIT commands outside with internal antennas.</t>
   </si>
 </sst>
 </file>
@@ -4918,7 +4954,7 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="55" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4927,7 +4963,7 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="29" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4936,7 +4972,7 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="29" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -5827,7 +5863,7 @@
         <v>43182</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5835,7 +5871,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5844,7 +5880,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="32" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5853,7 +5889,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="32" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42" x14ac:dyDescent="0.15">
@@ -5862,7 +5898,7 @@
       </c>
       <c r="B24" s="113"/>
       <c r="C24" s="114" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -5871,7 +5907,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="32" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5880,7 +5916,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="11" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42" x14ac:dyDescent="0.15">
@@ -5889,14 +5925,14 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="11" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="11" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="56" x14ac:dyDescent="0.15">
@@ -5905,7 +5941,7 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="32" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5914,7 +5950,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="32" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -6803,7 +6839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="150" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
@@ -7563,7 +7599,7 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -8568,10 +8604,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8673,17 +8709,29 @@
         <v>871</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="C15" s="11"/>
+    <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>43363</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>43409</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>43413</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>1089</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
@@ -8711,9 +8759,6 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8843,10 +8888,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8904,7 +8949,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>43083</v>
       </c>
       <c r="C7" s="32" t="s">
@@ -8912,21 +8957,44 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>43084</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
+    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>43363</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>43412</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>43417</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>43417</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>1091</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
@@ -8966,6 +9034,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9464,7 +9538,7 @@
         <v>43252</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -9472,7 +9546,7 @@
         <v>43327</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -9480,7 +9554,7 @@
         <v>43327</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -9488,7 +9562,7 @@
         <v>43327</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -9496,7 +9570,7 @@
         <v>43339</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -9504,7 +9578,7 @@
         <v>43339</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -9512,7 +9586,7 @@
         <v>43339</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -11139,7 +11213,7 @@
         <v>43252</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11147,7 +11221,7 @@
         <v>43325</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11155,7 +11229,7 @@
         <v>43325</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11163,7 +11237,7 @@
         <v>43325</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11171,7 +11245,7 @@
         <v>43332</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11179,7 +11253,7 @@
         <v>43332</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11187,7 +11261,7 @@
         <v>43332</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -11285,7 +11359,7 @@
         <v>43252</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11293,7 +11367,7 @@
         <v>43319</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11301,7 +11375,7 @@
         <v>43319</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11309,7 +11383,7 @@
         <v>43319</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11317,7 +11391,7 @@
         <v>43326</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11325,7 +11399,7 @@
         <v>43326</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -11333,7 +11407,7 @@
         <v>43326</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -13444,7 +13518,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13516,9 +13590,13 @@
         <v>980</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="C9" s="60"/>
+    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>43403</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
@@ -13752,8 +13830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="C24" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="C27" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14074,9 +14152,13 @@
         <v>812</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="C36" s="8"/>
+    <row r="36" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A36" s="6">
+        <v>43403</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>1078</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C37" s="8"/>
@@ -14094,7 +14176,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14167,9 +14249,13 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="C9" s="60"/>
+    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>43403</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>1080</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
@@ -14570,10 +14656,10 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14645,20 +14731,37 @@
         <v>861</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="C9" s="60"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="C10" s="60"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
+    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>43358</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>43405</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>43409</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>43409</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
@@ -14713,6 +14816,9 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16027,7 +16133,7 @@
         <v>43319</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -16134,7 +16240,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C1" s="11"/>
     </row>
@@ -16158,7 +16264,7 @@
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="32" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16176,7 +16282,7 @@
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="32" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -16184,7 +16290,7 @@
         <v>43363</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -16192,7 +16298,7 @@
         <v>43398</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -16200,7 +16306,7 @@
         <v>43398</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -16299,7 +16405,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C1" s="11"/>
     </row>
@@ -16323,7 +16429,7 @@
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="32" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16341,7 +16447,7 @@
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="32" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -16349,7 +16455,7 @@
         <v>43402</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16456,7 +16562,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C1" s="11"/>
     </row>
@@ -16480,7 +16586,7 @@
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="32" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16498,17 +16604,21 @@
       </c>
       <c r="B6" s="64"/>
       <c r="C6" s="32" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6">
+        <v>43405</v>
+      </c>
       <c r="C7" s="32" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6">
+        <v>43405</v>
+      </c>
       <c r="C8" s="32" t="s">
         <v>1011</v>
       </c>
@@ -17889,19 +17999,19 @@
     </row>
     <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="61" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B66" s="74">
         <v>1061</v>
       </c>
       <c r="C66" s="76" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D66" s="61" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E66" s="77" t="s">
         <v>1062</v>
-      </c>
-      <c r="E66" s="77" t="s">
-        <v>1064</v>
       </c>
       <c r="F66" s="75">
         <v>43355</v>
@@ -17909,19 +18019,19 @@
     </row>
     <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="61" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B67" s="74">
         <v>1062</v>
       </c>
       <c r="C67" s="76" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D67" s="61" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E67" s="77" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F67" s="75">
         <v>43355</v>
@@ -17929,19 +18039,19 @@
     </row>
     <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="61" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B68" s="74">
         <v>1063</v>
       </c>
       <c r="C68" s="76" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D68" s="61" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E68" s="77" t="s">
         <v>1067</v>
-      </c>
-      <c r="E68" s="77" t="s">
-        <v>1069</v>
       </c>
       <c r="F68" s="75">
         <v>43355</v>
@@ -17961,8 +18071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="A8" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18071,7 +18181,7 @@
         <v>159</v>
       </c>
       <c r="J4" s="57" t="s">
-        <v>1022</v>
+        <v>1077</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>177</v>
@@ -18923,7 +19033,7 @@
         <v>159</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>1054</v>
+        <v>1077</v>
       </c>
       <c r="K21" s="48" t="s">
         <v>417</v>
@@ -19087,7 +19197,9 @@
       <c r="P24" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="Q24" s="3"/>
+      <c r="Q24" s="3" t="s">
+        <v>400</v>
+      </c>
       <c r="R24" s="52" t="s">
         <v>514</v>
       </c>
@@ -19185,7 +19297,9 @@
       <c r="P26" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="30" t="s">
+        <v>400</v>
+      </c>
       <c r="R26" s="52" t="s">
         <v>548</v>
       </c>
@@ -20599,7 +20713,9 @@
       <c r="P57" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="Q57" s="3"/>
+      <c r="Q57" s="3" t="s">
+        <v>400</v>
+      </c>
       <c r="R57" s="52" t="s">
         <v>827</v>
       </c>
@@ -20922,7 +21038,7 @@
     </row>
     <row r="65" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="52" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B65" s="3">
         <v>1061</v>
@@ -20942,7 +21058,7 @@
       </c>
       <c r="J65" s="28"/>
       <c r="K65" s="48" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="L65" s="30" t="s">
         <v>298</v>
@@ -20963,12 +21079,12 @@
         <v>400</v>
       </c>
       <c r="R65" s="52" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="52" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B66" s="3">
         <v>1062</v>
@@ -20988,7 +21104,7 @@
       </c>
       <c r="J66" s="28"/>
       <c r="K66" s="48" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="L66" s="30" t="s">
         <v>298</v>
@@ -21009,12 +21125,12 @@
         <v>400</v>
       </c>
       <c r="R66" s="52" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="52" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B67" s="3">
         <v>1063</v>
@@ -21034,7 +21150,7 @@
       </c>
       <c r="J67" s="28"/>
       <c r="K67" s="48" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="L67" s="30" t="s">
         <v>298</v>
@@ -21055,7 +21171,7 @@
         <v>400</v>
       </c>
       <c r="R67" s="52" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -21073,8 +21189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21110,7 +21226,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="35" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -21125,7 +21241,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="110"/>
       <c r="B5" s="35" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C5" s="35"/>
     </row>
@@ -21633,6 +21749,12 @@
       <c r="E28" s="38">
         <v>13.55</v>
       </c>
+      <c r="F28" s="108">
+        <v>43413</v>
+      </c>
+      <c r="G28" s="109">
+        <v>12.63</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="36" t="s">
@@ -21661,6 +21783,12 @@
       <c r="E30" s="38">
         <v>13.75</v>
       </c>
+      <c r="F30" s="108">
+        <v>43417</v>
+      </c>
+      <c r="G30" s="109">
+        <v>12.88</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="36" t="s">
@@ -22069,6 +22197,12 @@
       <c r="C60" s="34">
         <v>13.62</v>
       </c>
+      <c r="D60" s="108">
+        <v>43409</v>
+      </c>
+      <c r="E60" s="109">
+        <v>12.99</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="78" t="s">
@@ -22155,7 +22289,7 @@
     </row>
     <row r="68" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="36" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B68" s="108">
         <v>43398</v>
@@ -22166,7 +22300,7 @@
     </row>
     <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="36" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B69" s="108">
         <v>43402</v>
@@ -22177,10 +22311,14 @@
     </row>
     <row r="70" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="36" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B70" s="115"/>
-      <c r="C70" s="115"/>
+        <v>1047</v>
+      </c>
+      <c r="B70" s="108">
+        <v>43405</v>
+      </c>
+      <c r="C70" s="115">
+        <v>13.23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TFLEX_TEST_LOG.xlsx
+++ b/TFLEX_TEST_LOG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/white/Repos/Dev/dbFlexControllers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71F1527-0B83-2F44-AE17-183F94B86403}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4EC351-0E59-4143-8AC3-D1532F04F343}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17060" yWindow="460" windowWidth="34140" windowHeight="28340" tabRatio="756" firstSheet="44" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="1143">
   <si>
     <t>SSTC=OK, TESTIND=OK, ATRH=ON, WIND=OK, SWR=OK, RAIN=OK  -jms</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3539,9 +3539,6 @@
     <t>Installed NEW face and jam seal O-rings.</t>
   </si>
   <si>
-    <t>Installed NEW CPU board.</t>
-  </si>
-  <si>
     <t>Ran Bench current drain test for 2 days with version 2.01, 170530 firmware, RF modem turned off, 13.04mA Average.</t>
   </si>
   <si>
@@ -3549,6 +3546,24 @@
   </si>
   <si>
     <t>INSTALLED NEW CPU BOARD with 2.01, 170530, and new 2 GB FLASH RAM card.</t>
+  </si>
+  <si>
+    <t>Ran Current drain BENCH test for 3 days, 13.26mA Average.  Dumped FLASH RAM data file, which looked okay.</t>
+  </si>
+  <si>
+    <t>Installed NEW CPU board with firmware v2.01, 170530.</t>
+  </si>
+  <si>
+    <t>Successfully tested GPS and XMIT commands outside on internal antennas.</t>
+  </si>
+  <si>
+    <t>Rec RT015, 4S67E, IO2-18-RB, WIND CH BAD?</t>
+  </si>
+  <si>
+    <t>Back from IO2-18-RB.  Rec RT015, 4S67E.  On the shelf, waiting for post deploy testing/upgrades.  Gill WIND data failed during deployment, went to 1E+35CH.  TFLEX wind channel needs testing, BAD?  Gill wind sn16100041 calibrated okay, wind and compass cals?</t>
+  </si>
+  <si>
+    <t>From TFLEX DATA "System Status":  "All anemometer (Gill Windsonic #16100041) data become 1E+35. Compass data OK"</t>
   </si>
 </sst>
 </file>
@@ -3691,7 +3706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4041,6 +4056,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9453,10 +9471,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9545,7 +9563,7 @@
         <v>43517</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.15">
@@ -9580,24 +9598,33 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="C16" s="32"/>
+    <row r="16" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>43521</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>1137</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6">
+        <v>43521</v>
+      </c>
       <c r="C17" s="32" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="C18" s="32" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="C18" s="32" t="s">
+    <row r="19" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="C19" s="32" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
@@ -9655,6 +9682,9 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12075,7 +12105,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12996,10 +13026,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13056,9 +13086,112 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>42641</v>
+      </c>
       <c r="C7" s="60" t="s">
         <v>600</v>
       </c>
+    </row>
+    <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>43358</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>43521</v>
+      </c>
+      <c r="C9" s="120" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16653,7 +16786,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16746,8 +16879,8 @@
       <c r="A11" s="6">
         <v>43516</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>1134</v>
+      <c r="C11" s="32" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -16755,7 +16888,7 @@
         <v>43518</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -16763,7 +16896,7 @@
         <v>43518</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -18689,8 +18822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A30" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -20805,7 +20938,9 @@
       <c r="I44" s="80" t="s">
         <v>715</v>
       </c>
-      <c r="J44" s="28"/>
+      <c r="J44" s="28" t="s">
+        <v>1140</v>
+      </c>
       <c r="K44" s="48" t="s">
         <v>643</v>
       </c>
@@ -21892,8 +22027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -22541,10 +22676,10 @@
         <v>14.23</v>
       </c>
       <c r="D32" s="83">
-        <v>43518</v>
+        <v>43521</v>
       </c>
       <c r="E32" s="84">
-        <v>13.04</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -22989,7 +23124,7 @@
         <v>16.61</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="36" t="s">
         <v>967</v>
       </c>
@@ -23000,7 +23135,7 @@
         <v>14.17</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="36" t="s">
         <v>968</v>
       </c>
@@ -23011,7 +23146,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="36" t="s">
         <v>969</v>
       </c>
@@ -23027,8 +23162,14 @@
       <c r="E67" s="109">
         <v>12.94</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="F67" s="83">
+        <v>43518</v>
+      </c>
+      <c r="G67" s="84">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="36" t="s">
         <v>1041</v>
       </c>
@@ -23039,7 +23180,7 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="36" t="s">
         <v>1042</v>
       </c>
@@ -23050,7 +23191,7 @@
         <v>13.84</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="36" t="s">
         <v>1043</v>
       </c>
